--- a/stock_predictor_ai/data/cleaned/NWS.xlsx
+++ b/stock_predictor_ai/data/cleaned/NWS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3020"/>
+  <dimension ref="A1:F3021"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60849,6 +60849,26 @@
         <v>66203</v>
       </c>
     </row>
+    <row r="3021">
+      <c r="A3021" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B3021" t="n">
+        <v>34.08000183105469</v>
+      </c>
+      <c r="C3021" t="n">
+        <v>34.08000183105469</v>
+      </c>
+      <c r="D3021" t="n">
+        <v>34.0099983215332</v>
+      </c>
+      <c r="E3021" t="n">
+        <v>34.04000091552734</v>
+      </c>
+      <c r="F3021" t="n">
+        <v>9172</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/NWS.xlsx
+++ b/stock_predictor_ai/data/cleaned/NWS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3021"/>
+  <dimension ref="A1:F3022"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60869,6 +60869,26 @@
         <v>9172</v>
       </c>
     </row>
+    <row r="3022">
+      <c r="A3022" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B3022" t="n">
+        <v>34.20000076293945</v>
+      </c>
+      <c r="C3022" t="n">
+        <v>35.40999984741211</v>
+      </c>
+      <c r="D3022" t="n">
+        <v>34.18999862670898</v>
+      </c>
+      <c r="E3022" t="n">
+        <v>34.72999954223633</v>
+      </c>
+      <c r="F3022" t="n">
+        <v>798400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/NWS.xlsx
+++ b/stock_predictor_ai/data/cleaned/NWS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3022"/>
+  <dimension ref="A1:F3023"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60889,6 +60889,26 @@
         <v>798400</v>
       </c>
     </row>
+    <row r="3023">
+      <c r="A3023" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B3023" t="n">
+        <v>33.7400016784668</v>
+      </c>
+      <c r="C3023" t="n">
+        <v>34.84000015258789</v>
+      </c>
+      <c r="D3023" t="n">
+        <v>33.54999923706055</v>
+      </c>
+      <c r="E3023" t="n">
+        <v>34.84000015258789</v>
+      </c>
+      <c r="F3023" t="n">
+        <v>197179</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/NWS.xlsx
+++ b/stock_predictor_ai/data/cleaned/NWS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3023"/>
+  <dimension ref="A1:F3024"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60909,6 +60909,26 @@
         <v>197179</v>
       </c>
     </row>
+    <row r="3024">
+      <c r="A3024" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B3024" t="n">
+        <v>33.36000061035156</v>
+      </c>
+      <c r="C3024" t="n">
+        <v>33.63999938964844</v>
+      </c>
+      <c r="D3024" t="n">
+        <v>33.14500045776367</v>
+      </c>
+      <c r="E3024" t="n">
+        <v>33.52999877929688</v>
+      </c>
+      <c r="F3024" t="n">
+        <v>194781</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/NWS.xlsx
+++ b/stock_predictor_ai/data/cleaned/NWS.xlsx
@@ -63,7 +63,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3024"/>
+  <dimension ref="A1:F3019"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60829,106 +60831,6 @@
         <v>740600</v>
       </c>
     </row>
-    <row r="3020">
-      <c r="A3020" s="2" t="n">
-        <v>45841</v>
-      </c>
-      <c r="B3020" t="n">
-        <v>34.31000137329102</v>
-      </c>
-      <c r="C3020" t="n">
-        <v>34.47000122070312</v>
-      </c>
-      <c r="D3020" t="n">
-        <v>34.2400016784668</v>
-      </c>
-      <c r="E3020" t="n">
-        <v>34.45999908447266</v>
-      </c>
-      <c r="F3020" t="n">
-        <v>66203</v>
-      </c>
-    </row>
-    <row r="3021">
-      <c r="A3021" s="2" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B3021" t="n">
-        <v>34.08000183105469</v>
-      </c>
-      <c r="C3021" t="n">
-        <v>34.08000183105469</v>
-      </c>
-      <c r="D3021" t="n">
-        <v>34.0099983215332</v>
-      </c>
-      <c r="E3021" t="n">
-        <v>34.04000091552734</v>
-      </c>
-      <c r="F3021" t="n">
-        <v>9172</v>
-      </c>
-    </row>
-    <row r="3022">
-      <c r="A3022" s="2" t="n">
-        <v>45853</v>
-      </c>
-      <c r="B3022" t="n">
-        <v>34.20000076293945</v>
-      </c>
-      <c r="C3022" t="n">
-        <v>35.40999984741211</v>
-      </c>
-      <c r="D3022" t="n">
-        <v>34.18999862670898</v>
-      </c>
-      <c r="E3022" t="n">
-        <v>34.72999954223633</v>
-      </c>
-      <c r="F3022" t="n">
-        <v>798400</v>
-      </c>
-    </row>
-    <row r="3023">
-      <c r="A3023" s="2" t="n">
-        <v>45859</v>
-      </c>
-      <c r="B3023" t="n">
-        <v>33.7400016784668</v>
-      </c>
-      <c r="C3023" t="n">
-        <v>34.84000015258789</v>
-      </c>
-      <c r="D3023" t="n">
-        <v>33.54999923706055</v>
-      </c>
-      <c r="E3023" t="n">
-        <v>34.84000015258789</v>
-      </c>
-      <c r="F3023" t="n">
-        <v>197179</v>
-      </c>
-    </row>
-    <row r="3024">
-      <c r="A3024" s="2" t="n">
-        <v>45902</v>
-      </c>
-      <c r="B3024" t="n">
-        <v>33.36000061035156</v>
-      </c>
-      <c r="C3024" t="n">
-        <v>33.63999938964844</v>
-      </c>
-      <c r="D3024" t="n">
-        <v>33.14500045776367</v>
-      </c>
-      <c r="E3024" t="n">
-        <v>33.52999877929688</v>
-      </c>
-      <c r="F3024" t="n">
-        <v>194781</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
